--- a/test_物件管理/已完成/test_ホワイトボート_空き待ちリスト.xlsx
+++ b/test_物件管理/已完成/test_ホワイトボート_空き待ちリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -4968,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KQ166"/>
   <sheetViews>
-    <sheetView topLeftCell="EH141" workbookViewId="0">
-      <selection activeCell="EN176" sqref="EN176"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21023,7 +21023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
